--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,97 +40,94 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>boring</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>boring</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
     <t>insane</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>frightening</t>
+  </si>
+  <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>behind</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>fake</t>
   </si>
   <si>
     <t>amazing</t>
@@ -139,43 +136,40 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
-  </si>
-  <si>
-    <t>media</t>
   </si>
   <si>
     <t>positive</t>
@@ -536,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -655,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -705,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,31 +767,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6">
+        <v>0.9</v>
+      </c>
+      <c r="L6">
+        <v>45</v>
+      </c>
+      <c r="M6">
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>0.8</v>
@@ -855,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,16 +870,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,16 +920,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.875</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.5866666666666667</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,16 +1020,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.5172413793103449</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,16 +1070,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1099,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.675</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>0.4444444444444444</v>
@@ -1155,13 +1149,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.3684210526315789</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.125</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -1247,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,16 +1270,16 @@
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.04280510018214936</v>
+        <v>0.03642987249544627</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,15 +1291,15 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -1323,45 +1317,21 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17">
-        <v>0.009036144578313253</v>
-      </c>
-      <c r="L17">
-        <v>6</v>
-      </c>
-      <c r="M17">
-        <v>6</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1373,21 +1343,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5789473684210527</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1402,18 +1372,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5384615384615384</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1425,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1451,21 +1421,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4615384615384616</v>
+        <v>0.45</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1477,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4492753623188406</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C23">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1503,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4347826086956522</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1529,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4117647058823529</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1555,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4042553191489361</v>
+        <v>0.375</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1581,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1607,21 +1577,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.375</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1633,21 +1603,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3461538461538461</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1659,21 +1629,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3214285714285715</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1685,15 +1655,15 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2916666666666667</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -1711,21 +1681,21 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.282051282051282</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1737,33 +1707,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="C33">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>9</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
